--- a/Дмитриченко/ВВП.xlsx
+++ b/Дмитриченко/ВВП.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUAI 2 year\ТП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUAI 2 year\ТП\LabRab_3\Дмитриченко\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A095E-CB3B-4850-A3FF-18A3C84252AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14198626-95D2-4887-B34F-4DD56991AE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0FF76F6-15FA-4DD6-AD26-9E2DC93D9E7B}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -41,55 +30,55 @@
     <t>2022</t>
   </si>
   <si>
-    <t>151 455.6</t>
-  </si>
-  <si>
-    <t>135 295.0</t>
-  </si>
-  <si>
-    <t>107 658.2</t>
-  </si>
-  <si>
-    <t>109 608.3</t>
-  </si>
-  <si>
-    <t>103 861.7</t>
-  </si>
-  <si>
-    <t>91 843.2</t>
-  </si>
-  <si>
-    <t>85 616.1</t>
-  </si>
-  <si>
-    <t>83 087.4</t>
-  </si>
-  <si>
-    <t>79 030.0</t>
-  </si>
-  <si>
-    <t>72 085.7</t>
-  </si>
-  <si>
-    <t>68 103.4</t>
-  </si>
-  <si>
-    <t>60 114.0</t>
-  </si>
-  <si>
-    <t>46 308.5</t>
-  </si>
-  <si>
-    <t>38 807.2</t>
-  </si>
-  <si>
-    <t>41 276.8</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
     <t>ВВП (млрд. руб.)</t>
+  </si>
+  <si>
+    <t>151455.6</t>
+  </si>
+  <si>
+    <t>135295.0</t>
+  </si>
+  <si>
+    <t>107658.2</t>
+  </si>
+  <si>
+    <t>109608.3</t>
+  </si>
+  <si>
+    <t>103861.7</t>
+  </si>
+  <si>
+    <t>91843.2</t>
+  </si>
+  <si>
+    <t>85616.1</t>
+  </si>
+  <si>
+    <t>83087.4</t>
+  </si>
+  <si>
+    <t>79030.0</t>
+  </si>
+  <si>
+    <t>72085.7</t>
+  </si>
+  <si>
+    <t>68103.4</t>
+  </si>
+  <si>
+    <t>60114.0</t>
+  </si>
+  <si>
+    <t>46308.5</t>
+  </si>
+  <si>
+    <t>38807.2</t>
+  </si>
+  <si>
+    <t>41276.8</t>
   </si>
 </sst>
 </file>
@@ -167,9 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -497,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1C7197-03C9-4EB5-9C24-2668FACE3971}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -509,206 +497,191 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
